--- a/data/trans_orig/IP22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1B2F8A-8EEB-406F-9482-E8C2F26521EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8B1ECC-A12C-4BB8-B8E1-1F3C9FB216BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{73F57BA2-11AD-4B2D-939F-3C7A2D83C4A3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1A9549A6-2B1C-4A4B-BC43-B89343D3A25B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,10 +68,205 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>73,29%</t>
@@ -101,138 +296,120 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>83,01%</t>
   </si>
   <si>
@@ -260,181 +437,55 @@
     <t>87,37%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>78,27%</t>
@@ -464,60 +515,186 @@
     <t>81,2%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
     <t>72,36%</t>
   </si>
   <si>
@@ -545,118 +722,109 @@
     <t>75,35%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>77,98%</t>
@@ -683,172 +851,52 @@
     <t>82,15%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>72,44%</t>
@@ -878,57 +926,183 @@
     <t>76,08%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>84,29%</t>
   </si>
   <si>
@@ -956,109 +1130,106 @@
     <t>85,92%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>85,12%</t>
@@ -1088,175 +1259,49 @@
     <t>89,42%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>83,26%</t>
@@ -1286,54 +1331,153 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>87,31%</t>
   </si>
   <si>
@@ -1361,94 +1505,88 @@
     <t>88,04%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>81,37%</t>
@@ -1475,142 +1613,28 @@
     <t>88,74%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>84,99%</t>
@@ -1632,30 +1656,6 @@
   </si>
   <si>
     <t>86,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3EDCA-1774-4987-B9BD-3670D6FA713E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE4BDDE-4A6A-4A5D-A875-DF05C9F6D6B5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2165,10 +2165,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>155470</v>
+        <v>4114</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2180,10 +2180,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>155212</v>
+        <v>4571</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2195,10 +2195,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>310682</v>
+        <v>8686</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2216,10 +2216,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2237,79 +2237,79 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1966</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>21330</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18153</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>83</v>
-      </c>
-      <c r="D6" s="7">
-        <v>54706</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>51</v>
+      </c>
+      <c r="N6" s="7">
+        <v>39482</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>64</v>
-      </c>
-      <c r="I6" s="7">
-        <v>39951</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>147</v>
-      </c>
-      <c r="N6" s="7">
-        <v>94657</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,102 +2318,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>106186</v>
+        <v>21447</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7">
+        <v>34</v>
+      </c>
+      <c r="I8" s="7">
+        <v>23176</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>66</v>
+      </c>
+      <c r="N8" s="7">
+        <v>44622</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="7">
-        <v>140</v>
-      </c>
-      <c r="I8" s="7">
-        <v>92826</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="7">
-        <v>301</v>
-      </c>
-      <c r="N8" s="7">
-        <v>199013</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2443,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2458,64 +2458,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="D10" s="7">
-        <v>21447</v>
+        <v>106186</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>140</v>
+      </c>
+      <c r="I10" s="7">
+        <v>92826</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>301</v>
+      </c>
+      <c r="N10" s="7">
+        <v>199013</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23176</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="7">
-        <v>66</v>
-      </c>
-      <c r="N10" s="7">
-        <v>44622</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2530,13 @@
         <v>127633</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>174</v>
@@ -2545,13 +2545,13 @@
         <v>116002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -2560,66 +2560,66 @@
         <v>243635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7">
-        <v>172506</v>
+        <v>54706</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>39951</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>147</v>
+      </c>
+      <c r="N12" s="7">
+        <v>94657</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="7">
-        <v>237</v>
-      </c>
-      <c r="I12" s="7">
-        <v>181360</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="7">
-        <v>491</v>
-      </c>
-      <c r="N12" s="7">
-        <v>353866</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,19 +2628,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2649,25 +2649,25 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1966</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>75</v>
@@ -2676,13 +2676,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>35318</v>
+        <v>155470</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -2694,10 +2694,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>27955</v>
+        <v>155212</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2709,10 +2709,10 @@
         <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>89</v>
+        <v>484</v>
       </c>
       <c r="N14" s="7">
-        <v>63273</v>
+        <v>310682</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2730,49 +2730,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D15" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I15" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N15" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,10 +2783,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>21330</v>
+        <v>38182</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>86</v>
@@ -2798,10 +2798,10 @@
         <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>18153</v>
+        <v>34730</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -2813,10 +2813,10 @@
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="N16" s="7">
-        <v>39482</v>
+        <v>72912</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -2834,100 +2834,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D18" s="7">
-        <v>4114</v>
+        <v>110179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="I18" s="7">
-        <v>4571</v>
+        <v>101809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>8686</v>
+        <v>211988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,102 +2936,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D19" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N19" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>110179</v>
+        <v>35318</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>101809</v>
+        <v>27955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>341</v>
+        <v>89</v>
       </c>
       <c r="N20" s="7">
-        <v>211988</v>
+        <v>63273</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,46 +3040,46 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>1278</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>2574</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>122</v>
@@ -3088,13 +3088,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="D22" s="7">
-        <v>38182</v>
+        <v>172506</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>123</v>
@@ -3106,10 +3106,10 @@
         <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="I22" s="7">
-        <v>34730</v>
+        <v>181360</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>126</v>
@@ -3121,10 +3121,10 @@
         <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>116</v>
+        <v>491</v>
       </c>
       <c r="N22" s="7">
-        <v>72912</v>
+        <v>353866</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>129</v>
@@ -3142,49 +3142,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D23" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I23" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N23" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,10 +3195,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>851</v>
+        <v>230</v>
       </c>
       <c r="D24" s="7">
-        <v>565671</v>
+        <v>153767</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>132</v>
@@ -3210,10 +3210,10 @@
         <v>134</v>
       </c>
       <c r="H24" s="7">
-        <v>817</v>
+        <v>199</v>
       </c>
       <c r="I24" s="7">
-        <v>549360</v>
+        <v>130383</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>135</v>
@@ -3225,10 +3225,10 @@
         <v>137</v>
       </c>
       <c r="M24" s="7">
-        <v>1668</v>
+        <v>429</v>
       </c>
       <c r="N24" s="7">
-        <v>1115031</v>
+        <v>284150</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>138</v>
@@ -3270,7 +3270,7 @@
         <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>145</v>
@@ -3294,13 +3294,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>230</v>
+        <v>851</v>
       </c>
       <c r="D26" s="7">
-        <v>153767</v>
+        <v>565671</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>149</v>
@@ -3312,10 +3312,10 @@
         <v>151</v>
       </c>
       <c r="H26" s="7">
-        <v>199</v>
+        <v>817</v>
       </c>
       <c r="I26" s="7">
-        <v>130383</v>
+        <v>549360</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>152</v>
@@ -3327,10 +3327,10 @@
         <v>154</v>
       </c>
       <c r="M26" s="7">
-        <v>429</v>
+        <v>1668</v>
       </c>
       <c r="N26" s="7">
-        <v>284150</v>
+        <v>1115031</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>155</v>
@@ -3354,13 +3354,13 @@
         <v>722700</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1018</v>
@@ -3369,13 +3369,13 @@
         <v>681021</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2104</v>
@@ -3384,13 +3384,13 @@
         <v>1403721</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3411,7 +3411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53A9E21-1793-4196-BE08-CDFD367949C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6B3652-4512-4210-8260-5CEEF9C48507}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3529,10 +3529,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>161482</v>
+        <v>7240</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>159</v>
@@ -3544,10 +3544,10 @@
         <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>145977</v>
+        <v>4066</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>162</v>
@@ -3559,10 +3559,10 @@
         <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>307460</v>
+        <v>11305</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>165</v>
@@ -3580,19 +3580,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4410</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3601,79 +3601,79 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4410</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>57274</v>
+        <v>18215</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="7">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18307</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="7">
-        <v>92</v>
-      </c>
-      <c r="I6" s="7">
-        <v>59736</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>42</v>
+      </c>
+      <c r="N6" s="7">
+        <v>36523</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="M6" s="7">
-        <v>174</v>
-      </c>
-      <c r="N6" s="7">
-        <v>117010</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,102 +3682,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>223166</v>
+        <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>205713</v>
+        <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>641</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>428879</v>
+        <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>97996</v>
+        <v>31233</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="7">
+        <v>38</v>
+      </c>
+      <c r="I8" s="7">
+        <v>27975</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H8" s="7">
-        <v>124</v>
-      </c>
-      <c r="I8" s="7">
-        <v>88331</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>81</v>
+      </c>
+      <c r="N8" s="7">
+        <v>59208</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="M8" s="7">
-        <v>264</v>
-      </c>
-      <c r="N8" s="7">
-        <v>186327</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3807,13 +3807,13 @@
         <v>678</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3822,64 +3822,64 @@
         <v>678</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7">
-        <v>31233</v>
+        <v>97996</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
+        <v>124</v>
+      </c>
+      <c r="I10" s="7">
+        <v>88331</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>27975</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>264</v>
+      </c>
+      <c r="N10" s="7">
+        <v>186327</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>59208</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3894,13 @@
         <v>129229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -3909,13 +3909,13 @@
         <v>116984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>346</v>
@@ -3924,66 +3924,66 @@
         <v>246213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>161927</v>
+        <v>57274</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="7">
+        <v>92</v>
+      </c>
+      <c r="I12" s="7">
+        <v>59736</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="7">
-        <v>219</v>
-      </c>
-      <c r="I12" s="7">
-        <v>167799</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>174</v>
+      </c>
+      <c r="N12" s="7">
+        <v>117010</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="7">
-        <v>439</v>
-      </c>
-      <c r="N12" s="7">
-        <v>329726</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,100 +3992,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>1388</v>
+        <v>4410</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2874</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>4262</v>
+        <v>4410</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>44339</v>
+        <v>161482</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="7">
+        <v>226</v>
+      </c>
+      <c r="I14" s="7">
+        <v>145977</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="7">
-        <v>52</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39627</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>461</v>
+      </c>
+      <c r="N14" s="7">
+        <v>307460</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M14" s="7">
-        <v>112</v>
-      </c>
-      <c r="N14" s="7">
-        <v>83966</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,49 +4094,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="D15" s="7">
-        <v>207654</v>
+        <v>223166</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="I15" s="7">
-        <v>210300</v>
+        <v>205713</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="N15" s="7">
-        <v>417954</v>
+        <v>428879</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,49 +4147,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>18215</v>
+        <v>60327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>50</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32294</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="7">
-        <v>21</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18307</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>142</v>
+      </c>
+      <c r="N16" s="7">
+        <v>92620</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="M16" s="7">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7">
-        <v>36523</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,100 +4198,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>569</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1176</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="D18" s="7">
-        <v>7240</v>
+        <v>103913</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>191</v>
+      </c>
+      <c r="I18" s="7">
+        <v>122514</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4066</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>352</v>
+      </c>
+      <c r="N18" s="7">
+        <v>226427</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="M18" s="7">
-        <v>12</v>
-      </c>
-      <c r="N18" s="7">
-        <v>11305</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,102 +4300,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D19" s="7">
-        <v>25455</v>
+        <v>164847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I19" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N19" s="7">
-        <v>47828</v>
+        <v>320223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
-        <v>103913</v>
+        <v>44339</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="7">
+        <v>52</v>
+      </c>
+      <c r="I20" s="7">
+        <v>39627</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H20" s="7">
-        <v>191</v>
-      </c>
-      <c r="I20" s="7">
-        <v>122514</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>112</v>
+      </c>
+      <c r="N20" s="7">
+        <v>83966</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="M20" s="7">
-        <v>352</v>
-      </c>
-      <c r="N20" s="7">
-        <v>226427</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,46 +4404,46 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>607</v>
+        <v>1388</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2874</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>569</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>6</v>
+      </c>
+      <c r="N21" s="7">
+        <v>4262</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M21" s="7">
-        <v>2</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1176</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>261</v>
@@ -4452,13 +4452,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="D22" s="7">
-        <v>60327</v>
+        <v>161927</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>262</v>
@@ -4470,10 +4470,10 @@
         <v>264</v>
       </c>
       <c r="H22" s="7">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="I22" s="7">
-        <v>32294</v>
+        <v>167799</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>265</v>
@@ -4482,16 +4482,16 @@
         <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="7">
+        <v>439</v>
+      </c>
+      <c r="N22" s="7">
+        <v>329726</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="M22" s="7">
-        <v>142</v>
-      </c>
-      <c r="N22" s="7">
-        <v>92620</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>268</v>
@@ -4506,49 +4506,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="D23" s="7">
-        <v>164847</v>
+        <v>207654</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="N23" s="7">
-        <v>320223</v>
+        <v>417954</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,10 +4559,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>777</v>
+        <v>284</v>
       </c>
       <c r="D24" s="7">
-        <v>543535</v>
+        <v>200412</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>270</v>
@@ -4574,10 +4574,10 @@
         <v>272</v>
       </c>
       <c r="H24" s="7">
-        <v>781</v>
+        <v>237</v>
       </c>
       <c r="I24" s="7">
-        <v>542928</v>
+        <v>163697</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>273</v>
@@ -4589,10 +4589,10 @@
         <v>275</v>
       </c>
       <c r="M24" s="7">
-        <v>1558</v>
+        <v>521</v>
       </c>
       <c r="N24" s="7">
-        <v>1086462</v>
+        <v>364109</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>276</v>
@@ -4619,7 +4619,7 @@
         <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>280</v>
@@ -4631,7 +4631,7 @@
         <v>4121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>281</v>
@@ -4658,13 +4658,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>284</v>
+        <v>777</v>
       </c>
       <c r="D26" s="7">
-        <v>200412</v>
+        <v>543535</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>286</v>
@@ -4676,10 +4676,10 @@
         <v>288</v>
       </c>
       <c r="H26" s="7">
-        <v>237</v>
+        <v>781</v>
       </c>
       <c r="I26" s="7">
-        <v>163697</v>
+        <v>542928</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>289</v>
@@ -4691,10 +4691,10 @@
         <v>291</v>
       </c>
       <c r="M26" s="7">
-        <v>521</v>
+        <v>1558</v>
       </c>
       <c r="N26" s="7">
-        <v>364109</v>
+        <v>1086462</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>292</v>
@@ -4718,13 +4718,13 @@
         <v>750352</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1024</v>
@@ -4733,13 +4733,13 @@
         <v>710746</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2094</v>
@@ -4748,13 +4748,13 @@
         <v>1461097</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4775,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81FA15A-15F4-4F36-904A-EEADFF5872A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67F7F88-05B7-46A9-9151-AC79CE2AEEF7}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4893,10 +4893,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>189109</v>
+        <v>4592</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>296</v>
@@ -4908,10 +4908,10 @@
         <v>298</v>
       </c>
       <c r="H4" s="7">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>168770</v>
+        <v>5449</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>299</v>
@@ -4923,10 +4923,10 @@
         <v>301</v>
       </c>
       <c r="M4" s="7">
-        <v>551</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>357879</v>
+        <v>10041</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>302</v>
@@ -4944,100 +4944,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1291</v>
+        <v>525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2871</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>307</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>4162</v>
+        <v>525</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>33959</v>
+        <v>20457</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>17078</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H6" s="7">
-        <v>58</v>
-      </c>
-      <c r="I6" s="7">
-        <v>35606</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>42</v>
+      </c>
+      <c r="N6" s="7">
+        <v>37535</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M6" s="7">
-        <v>109</v>
-      </c>
-      <c r="N6" s="7">
-        <v>69565</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,102 +5046,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>101249</v>
+        <v>21253</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7">
+        <v>19860</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H8" s="7">
-        <v>131</v>
-      </c>
-      <c r="I8" s="7">
-        <v>89965</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>58</v>
+      </c>
+      <c r="N8" s="7">
+        <v>41113</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="M8" s="7">
-        <v>268</v>
-      </c>
-      <c r="N8" s="7">
-        <v>191214</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5171,13 +5171,13 @@
         <v>1355</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5186,64 +5186,64 @@
         <v>1355</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>21253</v>
+        <v>101249</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>131</v>
+      </c>
+      <c r="I10" s="7">
+        <v>89965</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H10" s="7">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19860</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>268</v>
+      </c>
+      <c r="N10" s="7">
+        <v>191214</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="M10" s="7">
-        <v>58</v>
-      </c>
-      <c r="N10" s="7">
-        <v>41113</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5258,13 @@
         <v>122502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -5273,13 +5273,13 @@
         <v>111180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -5288,66 +5288,66 @@
         <v>233682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>247</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>174419</v>
+        <v>33959</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>58</v>
+      </c>
+      <c r="I12" s="7">
+        <v>35606</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H12" s="7">
-        <v>245</v>
-      </c>
-      <c r="I12" s="7">
-        <v>182763</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>109</v>
+      </c>
+      <c r="N12" s="7">
+        <v>69565</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M12" s="7">
-        <v>492</v>
-      </c>
-      <c r="N12" s="7">
-        <v>357183</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,97 +5359,97 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1527</v>
+        <v>1291</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2871</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2166</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>3694</v>
+        <v>4162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>28971</v>
+        <v>189109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="I14" s="7">
-        <v>22491</v>
+        <v>168770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
-        <v>73</v>
+        <v>551</v>
       </c>
       <c r="N14" s="7">
-        <v>51462</v>
+        <v>357879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,49 +5458,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>204918</v>
+        <v>224359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>570</v>
+        <v>666</v>
       </c>
       <c r="N15" s="7">
-        <v>412338</v>
+        <v>431606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,49 +5511,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>20457</v>
+        <v>32409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>17078</v>
+        <v>33100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>37535</v>
+        <v>65509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,100 +5562,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>525</v>
+        <v>1185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="D18" s="7">
-        <v>4592</v>
+        <v>134264</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="I18" s="7">
-        <v>5449</v>
+        <v>121711</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="N18" s="7">
-        <v>10041</v>
+        <v>255975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,102 +5664,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N19" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>134264</v>
+        <v>28971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>121711</v>
+        <v>22491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="N20" s="7">
-        <v>255975</v>
+        <v>51462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,46 +5768,46 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>394</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2166</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1185</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="M21" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>1185</v>
+        <v>3694</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>396</v>
@@ -5816,13 +5816,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="D22" s="7">
-        <v>32409</v>
+        <v>174419</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>397</v>
@@ -5834,10 +5834,10 @@
         <v>399</v>
       </c>
       <c r="H22" s="7">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="I22" s="7">
-        <v>33100</v>
+        <v>182763</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>400</v>
@@ -5849,10 +5849,10 @@
         <v>402</v>
       </c>
       <c r="M22" s="7">
-        <v>105</v>
+        <v>492</v>
       </c>
       <c r="N22" s="7">
-        <v>65509</v>
+        <v>357183</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>403</v>
@@ -5870,49 +5870,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7">
-        <v>166673</v>
+        <v>204918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N23" s="7">
-        <v>322670</v>
+        <v>412338</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,10 +5923,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>886</v>
+        <v>173</v>
       </c>
       <c r="D24" s="7">
-        <v>619499</v>
+        <v>121184</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>406</v>
@@ -5938,34 +5938,34 @@
         <v>408</v>
       </c>
       <c r="H24" s="7">
-        <v>867</v>
+        <v>183</v>
       </c>
       <c r="I24" s="7">
-        <v>580287</v>
+        <v>116506</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>409</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>356</v>
+      </c>
+      <c r="N24" s="7">
+        <v>237690</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="M24" s="7">
-        <v>1753</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1199786</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,10 +5983,10 @@
         <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5995,13 +5995,13 @@
         <v>7578</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6010,55 +6010,55 @@
         <v>10921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>173</v>
+        <v>886</v>
       </c>
       <c r="D26" s="7">
-        <v>121184</v>
+        <v>619499</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>867</v>
+      </c>
+      <c r="I26" s="7">
+        <v>580287</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H26" s="7">
-        <v>183</v>
-      </c>
-      <c r="I26" s="7">
-        <v>116506</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>426</v>
       </c>
       <c r="M26" s="7">
-        <v>356</v>
+        <v>1753</v>
       </c>
       <c r="N26" s="7">
-        <v>237690</v>
+        <v>1199786</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>427</v>
@@ -6082,13 +6082,13 @@
         <v>744026</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -6097,13 +6097,13 @@
         <v>704371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2125</v>
@@ -6112,13 +6112,13 @@
         <v>1448397</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6139,7 +6139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DB2C54-AECA-40BA-AF8A-68FCE8F1BF7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3913CC-9DCE-4BEA-8443-0126DF20A121}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6257,49 +6257,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>218448</v>
+        <v>1307</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4911</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H4" s="7">
-        <v>231</v>
-      </c>
-      <c r="I4" s="7">
-        <v>158356</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6218</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="M4" s="7">
-        <v>531</v>
-      </c>
-      <c r="N4" s="7">
-        <v>376804</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6329,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6344,64 +6344,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>31738</v>
+        <v>11391</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="7">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11876</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H6" s="7">
-        <v>49</v>
-      </c>
-      <c r="I6" s="7">
-        <v>33996</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>23267</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="M6" s="7">
-        <v>92</v>
-      </c>
-      <c r="N6" s="7">
-        <v>65734</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,102 +6410,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>96631</v>
+        <v>17965</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H8" s="7">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7">
+        <v>15402</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="H8" s="7">
-        <v>143</v>
-      </c>
-      <c r="I8" s="7">
-        <v>88493</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>49</v>
+      </c>
+      <c r="N8" s="7">
+        <v>33367</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="M8" s="7">
-        <v>271</v>
-      </c>
-      <c r="N8" s="7">
-        <v>185123</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>282</v>
@@ -6535,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6550,64 +6550,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>17965</v>
+        <v>96631</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>143</v>
+      </c>
+      <c r="I10" s="7">
+        <v>88493</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15402</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>271</v>
+      </c>
+      <c r="N10" s="7">
+        <v>185123</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M10" s="7">
-        <v>49</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33367</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6622,13 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -6637,13 +6637,13 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -6652,66 +6652,66 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>142413</v>
+        <v>31738</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H12" s="7">
+        <v>49</v>
+      </c>
+      <c r="I12" s="7">
+        <v>33996</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="H12" s="7">
-        <v>213</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154076</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>92</v>
+      </c>
+      <c r="N12" s="7">
+        <v>65734</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="M12" s="7">
-        <v>406</v>
-      </c>
-      <c r="N12" s="7">
-        <v>296488</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6741,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6756,64 +6756,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="D14" s="7">
-        <v>32603</v>
+        <v>218448</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>231</v>
+      </c>
+      <c r="I14" s="7">
+        <v>158356</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>17135</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>531</v>
+      </c>
+      <c r="N14" s="7">
+        <v>376804</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="M14" s="7">
-        <v>71</v>
-      </c>
-      <c r="N14" s="7">
-        <v>49738</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,49 +6822,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>171211</v>
+        <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="N15" s="7">
-        <v>346226</v>
+        <v>442538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,49 +6875,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>11391</v>
+        <v>25298</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>40</v>
+      </c>
+      <c r="I16" s="7">
+        <v>26761</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11876</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>72</v>
+      </c>
+      <c r="N16" s="7">
+        <v>52059</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="M16" s="7">
-        <v>36</v>
-      </c>
-      <c r="N16" s="7">
-        <v>23267</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6932,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6947,13 +6947,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6962,64 +6962,64 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="D18" s="7">
-        <v>1307</v>
+        <v>147910</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H18" s="7">
+        <v>186</v>
+      </c>
+      <c r="I18" s="7">
+        <v>141141</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4911</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>379</v>
+      </c>
+      <c r="N18" s="7">
+        <v>289051</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="M18" s="7">
-        <v>11</v>
-      </c>
-      <c r="N18" s="7">
-        <v>6218</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,102 +7028,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>147910</v>
+        <v>32603</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7">
+        <v>17135</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="H20" s="7">
-        <v>186</v>
-      </c>
-      <c r="I20" s="7">
-        <v>141141</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>71</v>
+      </c>
+      <c r="N20" s="7">
+        <v>49738</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="M20" s="7">
-        <v>379</v>
-      </c>
-      <c r="N20" s="7">
-        <v>289051</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7168,58 +7168,58 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>172</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D22" s="7">
-        <v>25298</v>
+        <v>142413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="I22" s="7">
-        <v>26761</v>
+        <v>154076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="N22" s="7">
-        <v>52059</v>
+        <v>296488</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>522</v>
@@ -7234,49 +7234,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D23" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I23" s="7">
-        <v>167902</v>
+        <v>171211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="N23" s="7">
-        <v>341110</v>
+        <v>346226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>831</v>
+        <v>146</v>
       </c>
       <c r="D24" s="7">
-        <v>616792</v>
+        <v>108912</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>525</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
-        <v>792</v>
+        <v>149</v>
       </c>
       <c r="I24" s="7">
-        <v>553942</v>
+        <v>98205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>526</v>
@@ -7317,10 +7317,10 @@
         <v>527</v>
       </c>
       <c r="M24" s="7">
-        <v>1623</v>
+        <v>295</v>
       </c>
       <c r="N24" s="7">
-        <v>1170734</v>
+        <v>207117</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>528</v>
@@ -7344,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>281</v>
@@ -7359,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>281</v>
@@ -7374,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>531</v>
@@ -7386,31 +7386,31 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>146</v>
+        <v>831</v>
       </c>
       <c r="D26" s="7">
-        <v>108912</v>
+        <v>616792</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="H26" s="7">
-        <v>149</v>
+        <v>792</v>
       </c>
       <c r="I26" s="7">
-        <v>98205</v>
+        <v>553942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>534</v>
@@ -7419,10 +7419,10 @@
         <v>535</v>
       </c>
       <c r="M26" s="7">
-        <v>295</v>
+        <v>1623</v>
       </c>
       <c r="N26" s="7">
-        <v>207117</v>
+        <v>1170734</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>536</v>
@@ -7446,13 +7446,13 @@
         <v>725704</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>941</v>
@@ -7461,13 +7461,13 @@
         <v>652147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1918</v>
@@ -7476,13 +7476,13 @@
         <v>1377851</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8B1ECC-A12C-4BB8-B8E1-1F3C9FB216BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66999853-C67D-45EC-9FE0-66D17F1883C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1A9549A6-2B1C-4A4B-BC43-B89343D3A25B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCA5809C-8030-44B2-AA93-242A3FA6C4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="534">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,82 +71,82 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>Sí acudí a un centro o servicio</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,1507 +155,1492 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1651,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1762,39 +1747,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1846,7 +1831,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1957,13 +1942,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1972,6 +1950,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2036,19 +2021,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE4BDDE-4A6A-4A5D-A875-DF05C9F6D6B5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254CA67F-CA51-4E2B-A1E7-F018F86C7E52}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2165,10 +2170,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>4114</v>
+        <v>21330</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2180,10 +2185,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>4571</v>
+        <v>18153</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2195,10 +2200,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>8686</v>
+        <v>39482</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2267,10 +2272,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>21330</v>
+        <v>4114</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2282,10 +2287,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>18153</v>
+        <v>4571</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2302,10 @@
         <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>39482</v>
+        <v>8686</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -2371,10 +2376,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>21447</v>
+        <v>106186</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -2386,10 +2391,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>23176</v>
+        <v>92826</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -2401,10 +2406,10 @@
         <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>44622</v>
+        <v>199013</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -2473,10 +2478,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>106186</v>
+        <v>21447</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2488,10 +2493,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>92826</v>
+        <v>23176</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2503,10 +2508,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>199013</v>
+        <v>44622</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -2577,10 +2582,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>54706</v>
+        <v>155470</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>60</v>
@@ -2592,10 +2597,10 @@
         <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>39951</v>
+        <v>155212</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>63</v>
@@ -2607,10 +2612,10 @@
         <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>484</v>
       </c>
       <c r="N12" s="7">
-        <v>94657</v>
+        <v>310682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>66</v>
@@ -2679,10 +2684,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7">
-        <v>155470</v>
+        <v>54706</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -2694,10 +2699,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>155212</v>
+        <v>39951</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2709,10 +2714,10 @@
         <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>484</v>
+        <v>147</v>
       </c>
       <c r="N14" s="7">
-        <v>310682</v>
+        <v>94657</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2783,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="D16" s="7">
-        <v>38182</v>
+        <v>110179</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>86</v>
@@ -2798,10 +2803,10 @@
         <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I16" s="7">
-        <v>34730</v>
+        <v>101809</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -2813,10 +2818,10 @@
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="N16" s="7">
-        <v>72912</v>
+        <v>211988</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -2885,10 +2890,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7">
-        <v>110179</v>
+        <v>38182</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>101</v>
@@ -2900,10 +2905,10 @@
         <v>103</v>
       </c>
       <c r="H18" s="7">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="I18" s="7">
-        <v>101809</v>
+        <v>34730</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>104</v>
@@ -2915,10 +2920,10 @@
         <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>341</v>
+        <v>116</v>
       </c>
       <c r="N18" s="7">
-        <v>211988</v>
+        <v>72912</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>107</v>
@@ -2989,10 +2994,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="D20" s="7">
-        <v>35318</v>
+        <v>172506</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>111</v>
@@ -3004,10 +3009,10 @@
         <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="I20" s="7">
-        <v>27955</v>
+        <v>181360</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>114</v>
@@ -3019,10 +3024,10 @@
         <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>89</v>
+        <v>491</v>
       </c>
       <c r="N20" s="7">
-        <v>63273</v>
+        <v>353866</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>117</v>
@@ -3091,10 +3096,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>172506</v>
+        <v>35318</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>123</v>
@@ -3106,10 +3111,10 @@
         <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>181360</v>
+        <v>27955</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>126</v>
@@ -3121,10 +3126,10 @@
         <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>491</v>
+        <v>89</v>
       </c>
       <c r="N22" s="7">
-        <v>353866</v>
+        <v>63273</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>129</v>
@@ -3195,10 +3200,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>230</v>
+        <v>851</v>
       </c>
       <c r="D24" s="7">
-        <v>153767</v>
+        <v>565671</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>132</v>
@@ -3210,10 +3215,10 @@
         <v>134</v>
       </c>
       <c r="H24" s="7">
-        <v>199</v>
+        <v>817</v>
       </c>
       <c r="I24" s="7">
-        <v>130383</v>
+        <v>549360</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>135</v>
@@ -3225,10 +3230,10 @@
         <v>137</v>
       </c>
       <c r="M24" s="7">
-        <v>429</v>
+        <v>1668</v>
       </c>
       <c r="N24" s="7">
-        <v>284150</v>
+        <v>1115031</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>138</v>
@@ -3288,7 +3293,7 @@
         <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +3302,49 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>851</v>
+        <v>230</v>
       </c>
       <c r="D26" s="7">
-        <v>565671</v>
+        <v>153767</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>199</v>
+      </c>
+      <c r="I26" s="7">
+        <v>130383</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="7">
-        <v>817</v>
-      </c>
-      <c r="I26" s="7">
-        <v>549360</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>429</v>
+      </c>
+      <c r="N26" s="7">
+        <v>284150</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="7">
-        <v>1668</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1115031</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,6 +3396,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3411,8 +3421,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6B3652-4512-4210-8260-5CEEF9C48507}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F530C8-22F8-42F8-B173-3A1067544876}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3529,10 +3539,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>7240</v>
+        <v>18215</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>159</v>
@@ -3541,37 +3551,37 @@
         <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18307</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4066</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>42</v>
+      </c>
+      <c r="N4" s="7">
+        <v>36523</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M4" s="7">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11305</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3602,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3607,7 +3617,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3622,7 +3632,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3641,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>18215</v>
+        <v>7240</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4066</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="7">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7">
-        <v>18307</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>12</v>
+      </c>
+      <c r="N6" s="7">
+        <v>11305</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="7">
-        <v>42</v>
-      </c>
-      <c r="N6" s="7">
-        <v>36523</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,49 +3745,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>31233</v>
+        <v>97996</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>124</v>
+      </c>
+      <c r="I8" s="7">
+        <v>88331</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="7">
-        <v>38</v>
-      </c>
-      <c r="I8" s="7">
-        <v>27975</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>264</v>
+      </c>
+      <c r="N8" s="7">
+        <v>186327</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M8" s="7">
-        <v>81</v>
-      </c>
-      <c r="N8" s="7">
-        <v>59208</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3808,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3807,13 +3817,13 @@
         <v>678</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3822,13 +3832,13 @@
         <v>678</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,49 +3847,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>97996</v>
+        <v>31233</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7">
+        <v>27975</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="7">
-        <v>124</v>
-      </c>
-      <c r="I10" s="7">
-        <v>88331</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>81</v>
+      </c>
+      <c r="N10" s="7">
+        <v>59208</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="7">
-        <v>264</v>
-      </c>
-      <c r="N10" s="7">
-        <v>186327</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>57274</v>
+        <v>161482</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>226</v>
+      </c>
+      <c r="I12" s="7">
+        <v>145977</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="7">
-        <v>92</v>
-      </c>
-      <c r="I12" s="7">
-        <v>59736</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="7">
+        <v>461</v>
+      </c>
+      <c r="N12" s="7">
+        <v>307460</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="M12" s="7">
-        <v>174</v>
-      </c>
-      <c r="N12" s="7">
-        <v>117010</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4008,13 @@
         <v>4410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4019,7 +4029,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4028,13 +4038,13 @@
         <v>4410</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,49 +4053,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
-        <v>161482</v>
+        <v>57274</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>92</v>
+      </c>
+      <c r="I14" s="7">
+        <v>59736</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="7">
-        <v>226</v>
-      </c>
-      <c r="I14" s="7">
-        <v>145977</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>174</v>
+      </c>
+      <c r="N14" s="7">
+        <v>117010</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="M14" s="7">
-        <v>461</v>
-      </c>
-      <c r="N14" s="7">
-        <v>307460</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,49 +4157,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D16" s="7">
-        <v>60327</v>
+        <v>103913</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="7">
+        <v>191</v>
+      </c>
+      <c r="I16" s="7">
+        <v>122514</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H16" s="7">
-        <v>50</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32294</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>352</v>
+      </c>
+      <c r="N16" s="7">
+        <v>226427</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M16" s="7">
-        <v>142</v>
-      </c>
-      <c r="N16" s="7">
-        <v>92620</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4214,13 @@
         <v>607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4219,13 +4229,13 @@
         <v>569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4234,13 +4244,13 @@
         <v>1176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,49 +4259,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7">
-        <v>103913</v>
+        <v>60327</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="7">
+        <v>50</v>
+      </c>
+      <c r="I18" s="7">
+        <v>32294</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H18" s="7">
-        <v>191</v>
-      </c>
-      <c r="I18" s="7">
-        <v>122514</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>142</v>
+      </c>
+      <c r="N18" s="7">
+        <v>92620</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M18" s="7">
-        <v>352</v>
-      </c>
-      <c r="N18" s="7">
-        <v>226427</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,49 +4363,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D20" s="7">
-        <v>44339</v>
+        <v>161927</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>219</v>
+      </c>
+      <c r="I20" s="7">
+        <v>167799</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="7">
-        <v>52</v>
-      </c>
-      <c r="I20" s="7">
-        <v>39627</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>439</v>
+      </c>
+      <c r="N20" s="7">
+        <v>329726</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="M20" s="7">
-        <v>112</v>
-      </c>
-      <c r="N20" s="7">
-        <v>83966</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4420,13 @@
         <v>1388</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4425,13 +4435,13 @@
         <v>2874</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -4440,13 +4450,13 @@
         <v>4262</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,49 +4465,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7">
-        <v>161927</v>
+        <v>44339</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>52</v>
+      </c>
+      <c r="I22" s="7">
+        <v>39627</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H22" s="7">
-        <v>219</v>
-      </c>
-      <c r="I22" s="7">
-        <v>167799</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M22" s="7">
-        <v>439</v>
+        <v>112</v>
       </c>
       <c r="N22" s="7">
-        <v>329726</v>
+        <v>83966</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,49 +4569,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>284</v>
+        <v>777</v>
       </c>
       <c r="D24" s="7">
-        <v>200412</v>
+        <v>543535</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>781</v>
+      </c>
+      <c r="I24" s="7">
+        <v>542928</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H24" s="7">
-        <v>237</v>
-      </c>
-      <c r="I24" s="7">
-        <v>163697</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1558</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1086462</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="M24" s="7">
-        <v>521</v>
-      </c>
-      <c r="N24" s="7">
-        <v>364109</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4626,13 @@
         <v>6405</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4631,13 +4641,13 @@
         <v>4121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4646,13 +4656,13 @@
         <v>10526</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,49 +4671,49 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>777</v>
+        <v>284</v>
       </c>
       <c r="D26" s="7">
-        <v>543535</v>
+        <v>200412</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>237</v>
+      </c>
+      <c r="I26" s="7">
+        <v>163697</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H26" s="7">
-        <v>781</v>
-      </c>
-      <c r="I26" s="7">
-        <v>542928</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>521</v>
+      </c>
+      <c r="N26" s="7">
+        <v>364109</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M26" s="7">
-        <v>1558</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1086462</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,6 +4765,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4775,8 +4790,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67F7F88-05B7-46A9-9151-AC79CE2AEEF7}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2151CC3E-DE57-485B-81C3-680792A2ADAC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4792,7 +4807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4893,49 +4908,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>4592</v>
+        <v>20457</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17078</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5449</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>42</v>
+      </c>
+      <c r="N4" s="7">
+        <v>37535</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>10041</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4965,13 @@
         <v>525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4971,7 +4986,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4980,13 +4995,13 @@
         <v>525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,49 +5010,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>20457</v>
+        <v>4592</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5449</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H6" s="7">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7">
-        <v>17078</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>11</v>
+      </c>
+      <c r="N6" s="7">
+        <v>10041</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="M6" s="7">
-        <v>42</v>
-      </c>
-      <c r="N6" s="7">
-        <v>37535</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,49 +5114,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>21253</v>
+        <v>101249</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>131</v>
+      </c>
+      <c r="I8" s="7">
+        <v>89965</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H8" s="7">
-        <v>30</v>
-      </c>
-      <c r="I8" s="7">
-        <v>19860</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>268</v>
+      </c>
+      <c r="N8" s="7">
+        <v>191214</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M8" s="7">
-        <v>58</v>
-      </c>
-      <c r="N8" s="7">
-        <v>41113</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5177,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5171,13 +5186,13 @@
         <v>1355</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5186,13 +5201,13 @@
         <v>1355</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,49 +5216,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>101249</v>
+        <v>21253</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="7">
+        <v>30</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19860</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>58</v>
+      </c>
+      <c r="N10" s="7">
+        <v>41113</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H10" s="7">
-        <v>131</v>
-      </c>
-      <c r="I10" s="7">
-        <v>89965</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M10" s="7">
-        <v>268</v>
-      </c>
-      <c r="N10" s="7">
-        <v>191214</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,49 +5320,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="D12" s="7">
-        <v>33959</v>
+        <v>189109</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H12" s="7">
+        <v>272</v>
+      </c>
+      <c r="I12" s="7">
+        <v>168770</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H12" s="7">
-        <v>58</v>
-      </c>
-      <c r="I12" s="7">
-        <v>35606</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>551</v>
+      </c>
+      <c r="N12" s="7">
+        <v>357879</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="M12" s="7">
-        <v>109</v>
-      </c>
-      <c r="N12" s="7">
-        <v>69565</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5377,13 @@
         <v>1291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5377,13 +5392,13 @@
         <v>2871</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5392,13 +5407,13 @@
         <v>4162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,49 +5422,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>189109</v>
+        <v>33959</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="7">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7">
+        <v>35606</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>109</v>
+      </c>
+      <c r="N14" s="7">
+        <v>69565</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H14" s="7">
-        <v>272</v>
-      </c>
-      <c r="I14" s="7">
-        <v>168770</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M14" s="7">
-        <v>551</v>
-      </c>
-      <c r="N14" s="7">
-        <v>357879</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,49 +5526,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="D16" s="7">
-        <v>32409</v>
+        <v>134264</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="7">
+        <v>201</v>
+      </c>
+      <c r="I16" s="7">
+        <v>121711</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>400</v>
+      </c>
+      <c r="N16" s="7">
+        <v>255975</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H16" s="7">
-        <v>56</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33100</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="M16" s="7">
-        <v>105</v>
-      </c>
-      <c r="N16" s="7">
-        <v>65509</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5589,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5583,13 +5598,13 @@
         <v>1185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5598,13 +5613,13 @@
         <v>1185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,49 +5628,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>134264</v>
+        <v>32409</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H18" s="7">
+        <v>56</v>
+      </c>
+      <c r="I18" s="7">
+        <v>33100</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>105</v>
+      </c>
+      <c r="N18" s="7">
+        <v>65509</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H18" s="7">
-        <v>201</v>
-      </c>
-      <c r="I18" s="7">
-        <v>121711</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M18" s="7">
-        <v>400</v>
-      </c>
-      <c r="N18" s="7">
-        <v>255975</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,49 +5732,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="D20" s="7">
-        <v>28971</v>
+        <v>174419</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H20" s="7">
+        <v>245</v>
+      </c>
+      <c r="I20" s="7">
+        <v>182763</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M20" s="7">
+        <v>492</v>
+      </c>
+      <c r="N20" s="7">
+        <v>357183</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="H20" s="7">
-        <v>33</v>
-      </c>
-      <c r="I20" s="7">
-        <v>22491</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="M20" s="7">
-        <v>73</v>
-      </c>
-      <c r="N20" s="7">
-        <v>51462</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5789,13 @@
         <v>1527</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5789,13 +5804,13 @@
         <v>2166</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>25</v>
+        <v>390</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5807,10 +5822,10 @@
         <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,49 +5834,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>174419</v>
+        <v>28971</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H22" s="7">
+        <v>33</v>
+      </c>
+      <c r="I22" s="7">
+        <v>22491</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>73</v>
+      </c>
+      <c r="N22" s="7">
+        <v>51462</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="H22" s="7">
-        <v>245</v>
-      </c>
-      <c r="I22" s="7">
-        <v>182763</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M22" s="7">
-        <v>492</v>
-      </c>
-      <c r="N22" s="7">
-        <v>357183</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,49 +5938,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>173</v>
+        <v>886</v>
       </c>
       <c r="D24" s="7">
-        <v>121184</v>
+        <v>619499</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H24" s="7">
+        <v>867</v>
+      </c>
+      <c r="I24" s="7">
+        <v>580287</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1753</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1199786</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H24" s="7">
-        <v>183</v>
-      </c>
-      <c r="I24" s="7">
-        <v>116506</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="M24" s="7">
-        <v>356</v>
-      </c>
-      <c r="N24" s="7">
-        <v>237690</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,10 +5998,10 @@
         <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5995,13 +6010,13 @@
         <v>7578</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6010,13 +6025,13 @@
         <v>10921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,49 +6040,49 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>886</v>
+        <v>173</v>
       </c>
       <c r="D26" s="7">
-        <v>619499</v>
+        <v>121184</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="7">
+        <v>183</v>
+      </c>
+      <c r="I26" s="7">
+        <v>116506</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M26" s="7">
+        <v>356</v>
+      </c>
+      <c r="N26" s="7">
+        <v>237690</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H26" s="7">
-        <v>867</v>
-      </c>
-      <c r="I26" s="7">
-        <v>580287</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1753</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1199786</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,6 +6134,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6139,8 +6159,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3913CC-9DCE-4BEA-8443-0126DF20A121}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F978EED7-04B1-4AAE-B365-9AFA84D3F5BB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6156,7 +6176,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6257,49 +6277,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>1307</v>
+        <v>11391</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4" s="7">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11876</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M4" s="7">
+        <v>36</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23267</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4911</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6218</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,7 +6340,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6335,7 +6355,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6350,7 +6370,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,49 +6379,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>11391</v>
+        <v>1307</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>11876</v>
+        <v>4911</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>443</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>23267</v>
+        <v>6218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,49 +6483,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>17965</v>
+        <v>96631</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="I8" s="7">
-        <v>15402</v>
+        <v>88493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M8" s="7">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="N8" s="7">
-        <v>33367</v>
+        <v>185123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,7 +6546,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>282</v>
+        <v>448</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6541,7 +6561,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6556,7 +6576,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,49 +6585,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>96631</v>
+        <v>17965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>88493</v>
+        <v>15402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>185123</v>
+        <v>33367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>456</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,49 +6689,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="D12" s="7">
-        <v>31738</v>
+        <v>218448</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>33996</v>
+        <v>158356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="M12" s="7">
-        <v>92</v>
+        <v>531</v>
       </c>
       <c r="N12" s="7">
-        <v>65734</v>
+        <v>376804</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,7 +6752,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6747,7 +6767,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6762,7 +6782,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,49 +6791,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>218448</v>
+        <v>31738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>158356</v>
+        <v>33996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
-        <v>531</v>
+        <v>92</v>
       </c>
       <c r="N14" s="7">
-        <v>376804</v>
+        <v>65734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,49 +6895,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>25298</v>
+        <v>147910</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="I16" s="7">
-        <v>26761</v>
+        <v>141141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="N16" s="7">
-        <v>52059</v>
+        <v>289051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,7 +6958,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6953,7 +6973,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6968,7 +6988,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,49 +6997,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>147910</v>
+        <v>25298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="I18" s="7">
-        <v>141141</v>
+        <v>26761</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>502</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
-        <v>379</v>
+        <v>72</v>
       </c>
       <c r="N18" s="7">
-        <v>289051</v>
+        <v>52059</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,49 +7101,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="D20" s="7">
-        <v>32603</v>
+        <v>142413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I20" s="7">
-        <v>17135</v>
+        <v>154076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M20" s="7">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="N20" s="7">
-        <v>49738</v>
+        <v>296488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,7 +7164,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7159,7 +7179,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7174,7 +7194,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,49 +7203,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>142413</v>
+        <v>32603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="I22" s="7">
-        <v>154076</v>
+        <v>17135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
-        <v>406</v>
+        <v>71</v>
       </c>
       <c r="N22" s="7">
-        <v>296488</v>
+        <v>49738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,49 +7307,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>146</v>
+        <v>831</v>
       </c>
       <c r="D24" s="7">
-        <v>108912</v>
+        <v>616792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="H24" s="7">
-        <v>149</v>
+        <v>792</v>
       </c>
       <c r="I24" s="7">
-        <v>98205</v>
+        <v>553942</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>517</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="M24" s="7">
-        <v>295</v>
+        <v>1623</v>
       </c>
       <c r="N24" s="7">
-        <v>207117</v>
+        <v>1170734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,7 +7370,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>523</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7365,7 +7385,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>523</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7380,7 +7400,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,49 +7409,49 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>831</v>
+        <v>146</v>
       </c>
       <c r="D26" s="7">
-        <v>616792</v>
+        <v>108912</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H26" s="7">
+        <v>149</v>
+      </c>
+      <c r="I26" s="7">
+        <v>98205</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="M26" s="7">
+        <v>295</v>
+      </c>
+      <c r="N26" s="7">
+        <v>207117</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="H26" s="7">
-        <v>792</v>
-      </c>
-      <c r="I26" s="7">
-        <v>553942</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1623</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1170734</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,6 +7503,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66999853-C67D-45EC-9FE0-66D17F1883C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4290B3F2-44C3-4E38-BF2A-F3EBA7404F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCA5809C-8030-44B2-AA93-242A3FA6C4E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A4ABF85-2906-421F-8719-BBD9E126B92A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="538">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -77,28 +77,28 @@
     <t>83,83%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>Sí acudieron a mi domicilio</t>
@@ -125,61 +125,61 @@
     <t>16,17%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -194,58 +194,58 @@
     <t>16,8%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>0,93%</t>
@@ -254,7 +254,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -266,1348 +266,1363 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>73,87%</t>
   </si>
   <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>73,74%</t>
   </si>
   <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>23,8%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>6,94%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>11,59%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>82,57%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>86,54%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -1619,28 +1634,25 @@
     <t>15,01%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>17,43%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254CA67F-CA51-4E2B-A1E7-F018F86C7E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8D5876-338F-4312-BB62-C13B5F7A0DEC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3236,13 +3248,13 @@
         <v>1115031</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3269,13 @@
         <v>3262</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3272,13 +3284,13 @@
         <v>1278</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -3287,13 +3299,13 @@
         <v>4540</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,7 +3433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F530C8-22F8-42F8-B173-3A1067544876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5311AE60-116D-474A-ABD7-F0DC4B58A703}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3563,7 @@
         <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -3560,13 +3572,13 @@
         <v>18307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -3575,13 +3587,13 @@
         <v>36523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3614,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3617,7 +3629,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3632,7 +3644,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3659,13 @@
         <v>7240</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3662,13 +3674,13 @@
         <v>4066</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3677,13 +3689,13 @@
         <v>11305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3763,13 @@
         <v>97996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -3766,13 +3778,13 @@
         <v>88331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>264</v>
@@ -3781,13 +3793,13 @@
         <v>186327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3820,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3817,13 +3829,13 @@
         <v>678</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3832,13 +3844,13 @@
         <v>678</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3865,13 @@
         <v>31233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3868,13 +3880,13 @@
         <v>27975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -3883,13 +3895,13 @@
         <v>59208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3969,13 @@
         <v>161482</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H12" s="7">
         <v>226</v>
@@ -3972,13 +3984,13 @@
         <v>145977</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="M12" s="7">
         <v>461</v>
@@ -3987,13 +3999,13 @@
         <v>307460</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4020,13 @@
         <v>4410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4029,7 +4041,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4038,10 +4050,10 @@
         <v>4410</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>215</v>
@@ -4092,10 +4104,10 @@
         <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4175,13 @@
         <v>103913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -4178,13 +4190,13 @@
         <v>122514</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>352</v>
@@ -4193,13 +4205,13 @@
         <v>226427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4226,13 @@
         <v>607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4229,13 +4241,13 @@
         <v>569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4244,13 +4256,13 @@
         <v>1176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4277,13 @@
         <v>60327</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -4280,13 +4292,13 @@
         <v>32294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -4295,13 +4307,13 @@
         <v>92620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4381,13 @@
         <v>161927</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>219</v>
@@ -4384,13 +4396,13 @@
         <v>167799</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>439</v>
@@ -4399,10 +4411,10 @@
         <v>329726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>253</v>
@@ -4453,10 +4465,10 @@
         <v>259</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4483,13 @@
         <v>44339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -4486,13 +4498,13 @@
         <v>39627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
@@ -4504,10 +4516,10 @@
         <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4587,13 @@
         <v>543535</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H24" s="7">
         <v>781</v>
@@ -4590,13 +4602,13 @@
         <v>542928</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="M24" s="7">
         <v>1558</v>
@@ -4629,10 +4641,10 @@
         <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4641,13 +4653,13 @@
         <v>4121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4656,10 +4668,10 @@
         <v>10526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>284</v>
@@ -4680,10 +4692,10 @@
         <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>237</v>
@@ -4692,13 +4704,13 @@
         <v>163697</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>521</v>
@@ -4707,13 +4719,13 @@
         <v>364109</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2151CC3E-DE57-485B-81C3-680792A2ADAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236A0938-8AD5-4FA2-B4D9-7C27C36B5237}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4807,7 +4819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4914,13 +4926,13 @@
         <v>20457</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -4929,13 +4941,13 @@
         <v>17078</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -4944,13 +4956,13 @@
         <v>37535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4977,13 @@
         <v>525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4986,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4995,13 +5007,13 @@
         <v>525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5028,13 @@
         <v>4592</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5031,13 +5043,13 @@
         <v>5449</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -5046,13 +5058,13 @@
         <v>10041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5132,13 @@
         <v>101249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -5135,13 +5147,13 @@
         <v>89965</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -5150,13 +5162,13 @@
         <v>191214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,7 +5189,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5186,13 +5198,13 @@
         <v>1355</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5201,13 +5213,13 @@
         <v>1355</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5234,13 @@
         <v>21253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -5237,13 +5249,13 @@
         <v>19860</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5252,13 +5264,13 @@
         <v>41113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5338,13 @@
         <v>189109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="H12" s="7">
         <v>272</v>
@@ -5341,13 +5353,13 @@
         <v>168770</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>551</v>
@@ -5356,13 +5368,13 @@
         <v>357879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5389,13 @@
         <v>1291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5392,13 +5404,13 @@
         <v>2871</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5407,13 +5419,13 @@
         <v>4162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5440,13 @@
         <v>33959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -5443,13 +5455,13 @@
         <v>35606</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -5458,13 +5470,13 @@
         <v>69565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5544,13 @@
         <v>134264</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -5547,13 +5559,13 @@
         <v>121711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>400</v>
@@ -5562,13 +5574,13 @@
         <v>255975</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5601,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5598,13 +5610,13 @@
         <v>1185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5613,13 +5625,13 @@
         <v>1185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5646,13 @@
         <v>32409</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -5649,13 +5661,13 @@
         <v>33100</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -5664,13 +5676,13 @@
         <v>65509</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5750,13 @@
         <v>174419</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -5753,13 +5765,13 @@
         <v>182763</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>492</v>
@@ -5768,13 +5780,13 @@
         <v>357183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5801,13 @@
         <v>1527</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5804,13 +5816,13 @@
         <v>2166</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5822,10 +5834,10 @@
         <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5852,13 @@
         <v>28971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5855,13 +5867,13 @@
         <v>22491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -5870,13 +5882,13 @@
         <v>51462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5956,13 @@
         <v>619499</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>867</v>
@@ -5959,13 +5971,13 @@
         <v>580287</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>1753</v>
@@ -5974,13 +5986,13 @@
         <v>1199786</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>410</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,13 +6007,13 @@
         <v>3343</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -6013,10 +6025,10 @@
         <v>413</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6025,13 +6037,13 @@
         <v>10921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6058,13 @@
         <v>121184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>183</v>
@@ -6061,13 +6073,13 @@
         <v>116506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>356</v>
@@ -6076,13 +6088,13 @@
         <v>237690</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F978EED7-04B1-4AAE-B365-9AFA84D3F5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011A576-BBC4-4F3E-8384-713E141E8A8D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6176,7 +6188,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6283,13 +6295,13 @@
         <v>11391</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -6298,13 +6310,13 @@
         <v>11876</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -6313,13 +6325,13 @@
         <v>23267</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,7 +6352,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6355,7 +6367,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6370,7 +6382,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6397,13 @@
         <v>1307</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6400,13 +6412,13 @@
         <v>4911</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>441</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -6415,13 +6427,13 @@
         <v>6218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6501,13 @@
         <v>96631</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -6504,13 +6516,13 @@
         <v>88493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M8" s="7">
         <v>271</v>
@@ -6519,13 +6531,13 @@
         <v>185123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,7 +6558,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>448</v>
+        <v>282</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6561,7 +6573,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6576,7 +6588,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6603,13 @@
         <v>17965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -6606,13 +6618,13 @@
         <v>15402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6621,13 +6633,13 @@
         <v>33367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6707,13 @@
         <v>218448</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
@@ -6710,13 +6722,13 @@
         <v>158356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="M12" s="7">
         <v>531</v>
@@ -6725,13 +6737,13 @@
         <v>376804</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,7 +6764,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6767,7 +6779,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6782,7 +6794,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6809,13 @@
         <v>31738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -6812,13 +6824,13 @@
         <v>33996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -6827,13 +6839,13 @@
         <v>65734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6913,13 @@
         <v>147910</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>186</v>
@@ -6916,13 +6928,13 @@
         <v>141141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -6931,13 +6943,13 @@
         <v>289051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,7 +7000,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +7015,13 @@
         <v>25298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -7018,13 +7030,13 @@
         <v>26761</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>499</v>
       </c>
       <c r="M18" s="7">
         <v>72</v>
@@ -7033,13 +7045,13 @@
         <v>52059</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7119,13 @@
         <v>142413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H20" s="7">
         <v>213</v>
@@ -7122,13 +7134,13 @@
         <v>154076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>406</v>
@@ -7137,13 +7149,13 @@
         <v>296488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,7 +7176,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7179,7 +7191,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7194,7 +7206,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>214</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7221,13 @@
         <v>32603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -7224,13 +7236,13 @@
         <v>17135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -7239,13 +7251,13 @@
         <v>49738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7325,13 @@
         <v>616792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>792</v>
@@ -7328,13 +7340,13 @@
         <v>553942</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>1623</v>
@@ -7343,13 +7355,13 @@
         <v>1170734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>521</v>
+        <v>404</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,7 +7382,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7385,7 +7397,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7400,7 +7412,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7427,13 @@
         <v>108912</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>149</v>
@@ -7430,13 +7442,13 @@
         <v>98205</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
@@ -7445,13 +7457,13 @@
         <v>207117</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4290B3F2-44C3-4E38-BF2A-F3EBA7404F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B7CA3E-7694-40D3-850D-D66751AEBCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A4ABF85-2906-421F-8719-BBD9E126B92A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EE6F37CC-7789-4833-8602-0F209A140686}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="463">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1591 +68,1366 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
 </sst>
 </file>
@@ -2064,8 +1839,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8D5876-338F-4312-BB62-C13B5F7A0DEC}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BC5ACD-E7CE-42C7-94B1-78BFED791E21}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2182,10 +1957,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="D4" s="7">
-        <v>21330</v>
+        <v>110979</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2197,10 +1972,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="I4" s="7">
-        <v>18153</v>
+        <v>127516</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2212,10 +1987,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="N4" s="7">
-        <v>39482</v>
+        <v>238495</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2284,10 +2059,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>4114</v>
+        <v>27747</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2299,10 +2074,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>4571</v>
+        <v>25561</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2089,10 @@
         <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="N6" s="7">
-        <v>8686</v>
+        <v>53308</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -2335,10 +2110,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2350,10 +2125,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I7" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2365,10 +2140,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N7" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2388,10 +2163,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="D8" s="7">
-        <v>106186</v>
+        <v>155212</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -2403,10 +2178,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="I8" s="7">
-        <v>92826</v>
+        <v>155470</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -2418,10 +2193,10 @@
         <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>301</v>
+        <v>484</v>
       </c>
       <c r="N8" s="7">
-        <v>199013</v>
+        <v>310682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -2454,34 +2229,34 @@
         <v>47</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,49 +2265,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>21447</v>
+        <v>39951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>23176</v>
+        <v>54706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>44622</v>
+        <v>94657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2556,10 +2331,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2571,10 +2346,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2588,55 +2363,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="D12" s="7">
-        <v>155470</v>
+        <v>101809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="I12" s="7">
-        <v>155212</v>
+        <v>110179</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
-        <v>484</v>
+        <v>341</v>
       </c>
       <c r="N12" s="7">
-        <v>310682</v>
+        <v>211988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,49 +2420,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1966</v>
+        <v>1278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1966</v>
+        <v>2574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,49 +2471,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7">
+        <v>34730</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7">
+        <v>38182</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="7">
-        <v>54706</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39951</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="N14" s="7">
-        <v>94657</v>
+        <v>72912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D15" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2762,10 +2537,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2777,10 +2552,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2794,55 +2569,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="D16" s="7">
-        <v>110179</v>
+        <v>181360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7">
-        <v>101809</v>
+        <v>172506</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="N16" s="7">
-        <v>211988</v>
+        <v>353866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,46 +2626,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1278</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2574</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>100</v>
@@ -2902,10 +2677,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>38182</v>
+        <v>27955</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>101</v>
@@ -2917,10 +2692,10 @@
         <v>103</v>
       </c>
       <c r="H18" s="7">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7">
-        <v>34730</v>
+        <v>35318</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>104</v>
@@ -2932,10 +2707,10 @@
         <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="N18" s="7">
-        <v>72912</v>
+        <v>63273</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>107</v>
@@ -2953,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D19" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2968,10 +2743,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I19" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2983,10 +2758,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N19" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3000,55 +2775,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>254</v>
+        <v>817</v>
       </c>
       <c r="D20" s="7">
-        <v>172506</v>
+        <v>549360</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>851</v>
+      </c>
+      <c r="I20" s="7">
+        <v>565671</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="7">
-        <v>237</v>
-      </c>
-      <c r="I20" s="7">
-        <v>181360</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1668</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1115031</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="7">
-        <v>491</v>
-      </c>
-      <c r="N20" s="7">
-        <v>353866</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,49 +2832,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>3262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>4540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,49 +2883,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="D22" s="7">
-        <v>35318</v>
+        <v>130383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="I22" s="7">
-        <v>27955</v>
+        <v>153767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>89</v>
+        <v>429</v>
       </c>
       <c r="N22" s="7">
-        <v>63273</v>
+        <v>284150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,10 +2934,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D23" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -3174,10 +2949,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I23" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3189,10 +2964,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N23" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -3205,222 +2980,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>851</v>
-      </c>
-      <c r="D24" s="7">
-        <v>565671</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="7">
-        <v>817</v>
-      </c>
-      <c r="I24" s="7">
-        <v>549360</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="A24" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1668</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1115031</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>3262</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1278</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25" s="7">
-        <v>7</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4540</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>230</v>
-      </c>
-      <c r="D26" s="7">
-        <v>153767</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="7">
-        <v>199</v>
-      </c>
-      <c r="I26" s="7">
-        <v>130383</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="7">
-        <v>429</v>
-      </c>
-      <c r="N26" s="7">
-        <v>284150</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D27" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I27" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3433,8 +3001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5311AE60-116D-474A-ABD7-F0DC4B58A703}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28738243-EA81-4DA6-AFFF-6BC5BF1A383C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3450,7 +3018,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3551,49 +3119,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="D4" s="7">
-        <v>18215</v>
+        <v>106638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="7">
         <v>161</v>
       </c>
-      <c r="H4" s="7">
-        <v>21</v>
-      </c>
       <c r="I4" s="7">
-        <v>18307</v>
+        <v>116212</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="N4" s="7">
-        <v>36523</v>
+        <v>222850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,19 +3170,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3629,22 +3197,22 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,49 +3221,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>7240</v>
+        <v>32041</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7">
-        <v>4066</v>
+        <v>38472</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="N6" s="7">
-        <v>11305</v>
+        <v>70513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3719,10 +3287,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3734,10 +3302,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3757,49 +3325,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>97996</v>
+        <v>145977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="I8" s="7">
-        <v>88331</v>
+        <v>161482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
-        <v>264</v>
+        <v>461</v>
       </c>
       <c r="N8" s="7">
-        <v>186327</v>
+        <v>307460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,37 +3388,37 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>678</v>
+        <v>4410</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>678</v>
+        <v>4410</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,49 +3427,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>31233</v>
+        <v>59736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>27975</v>
+        <v>57274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>59208</v>
+        <v>117010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,10 +3478,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>129229</v>
+        <v>205713</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3925,10 +3493,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="I11" s="7">
-        <v>116984</v>
+        <v>223166</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3940,10 +3508,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>641</v>
       </c>
       <c r="N11" s="7">
-        <v>246213</v>
+        <v>428879</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3957,55 +3525,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="D12" s="7">
-        <v>161482</v>
+        <v>122514</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="I12" s="7">
-        <v>145977</v>
+        <v>103913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
-        <v>461</v>
+        <v>352</v>
       </c>
       <c r="N12" s="7">
-        <v>307460</v>
+        <v>226427</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +3582,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>4410</v>
+        <v>569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>4410</v>
+        <v>1176</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +3633,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>57274</v>
+        <v>32294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>92</v>
       </c>
       <c r="I14" s="7">
-        <v>59736</v>
+        <v>60327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="N14" s="7">
-        <v>117010</v>
+        <v>92620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,10 +3684,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D15" s="7">
-        <v>223166</v>
+        <v>155376</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4131,10 +3699,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7">
-        <v>205713</v>
+        <v>164847</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4146,10 +3714,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>641</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>428879</v>
+        <v>320223</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4163,55 +3731,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D16" s="7">
-        <v>103913</v>
+        <v>167799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="I16" s="7">
-        <v>122514</v>
+        <v>161927</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="N16" s="7">
-        <v>226427</v>
+        <v>329726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,49 +3788,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>607</v>
+        <v>2874</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>569</v>
+        <v>1388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>1176</v>
+        <v>4262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,49 +3839,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>60327</v>
+        <v>39627</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>32294</v>
+        <v>44339</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="N18" s="7">
-        <v>92620</v>
+        <v>83966</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,10 +3890,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>164847</v>
+        <v>210300</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4337,10 +3905,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="I19" s="7">
-        <v>155376</v>
+        <v>207654</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4352,10 +3920,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="N19" s="7">
-        <v>320223</v>
+        <v>417954</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -4369,55 +3937,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>220</v>
+        <v>781</v>
       </c>
       <c r="D20" s="7">
-        <v>161927</v>
+        <v>542928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
-        <v>219</v>
+        <v>777</v>
       </c>
       <c r="I20" s="7">
-        <v>167799</v>
+        <v>543535</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
-        <v>439</v>
+        <v>1558</v>
       </c>
       <c r="N20" s="7">
-        <v>329726</v>
+        <v>1086462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,49 +3994,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>1388</v>
+        <v>4121</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I21" s="7">
-        <v>2874</v>
+        <v>6405</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>4262</v>
+        <v>10526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,49 +4045,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="D22" s="7">
-        <v>44339</v>
+        <v>163697</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
-        <v>52</v>
+        <v>284</v>
       </c>
       <c r="I22" s="7">
-        <v>39627</v>
+        <v>200412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
-        <v>112</v>
+        <v>521</v>
       </c>
       <c r="N22" s="7">
-        <v>83966</v>
+        <v>364109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>282</v>
+        <v>1024</v>
       </c>
       <c r="D23" s="7">
-        <v>207654</v>
+        <v>710746</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -4543,10 +4111,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>275</v>
+        <v>1070</v>
       </c>
       <c r="I23" s="7">
-        <v>210300</v>
+        <v>750352</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4558,10 +4126,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>557</v>
+        <v>2094</v>
       </c>
       <c r="N23" s="7">
-        <v>417954</v>
+        <v>1461097</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -4574,222 +4142,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>777</v>
-      </c>
-      <c r="D24" s="7">
-        <v>543535</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" s="7">
-        <v>781</v>
-      </c>
-      <c r="I24" s="7">
-        <v>542928</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1558</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1086462</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7">
-        <v>6405</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4121</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M25" s="7">
-        <v>15</v>
-      </c>
-      <c r="N25" s="7">
-        <v>10526</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>284</v>
-      </c>
-      <c r="D26" s="7">
-        <v>200412</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H26" s="7">
-        <v>237</v>
-      </c>
-      <c r="I26" s="7">
-        <v>163697</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M26" s="7">
-        <v>521</v>
-      </c>
-      <c r="N26" s="7">
-        <v>364109</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D27" s="7">
-        <v>750352</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I27" s="7">
-        <v>710746</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1461097</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>157</v>
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4802,8 +4163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236A0938-8AD5-4FA2-B4D9-7C27C36B5237}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD84F4F-28E4-4891-96E8-342DEB5070FE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4819,7 +4180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4920,49 +4281,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="D4" s="7">
-        <v>20457</v>
+        <v>107043</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I4" s="7">
-        <v>17078</v>
+        <v>121706</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="N4" s="7">
-        <v>37535</v>
+        <v>228749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,49 +4332,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>525</v>
+        <v>1355</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>525</v>
+        <v>1880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +4383,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7">
-        <v>4592</v>
+        <v>25309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>5449</v>
+        <v>25845</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>10041</v>
+        <v>51154</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,10 +4434,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -5088,10 +4449,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5103,10 +4464,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5126,49 +4487,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>101249</v>
+        <v>168770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="I8" s="7">
-        <v>89965</v>
+        <v>189109</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
-        <v>268</v>
+        <v>551</v>
       </c>
       <c r="N8" s="7">
-        <v>191214</v>
+        <v>357879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,49 +4538,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>2871</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1355</v>
+        <v>1291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>1355</v>
+        <v>4162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,49 +4589,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>21253</v>
+        <v>35606</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>19860</v>
+        <v>33959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>41113</v>
+        <v>69565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,10 +4640,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -5294,10 +4655,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5309,10 +4670,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5326,55 +4687,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="D12" s="7">
-        <v>189109</v>
+        <v>121711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="7">
+        <v>199</v>
+      </c>
+      <c r="I12" s="7">
+        <v>134264</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>168770</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>400</v>
       </c>
       <c r="N12" s="7">
-        <v>357879</v>
+        <v>255975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,46 +4747,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1291</v>
+        <v>1185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2871</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>4162</v>
+        <v>1185</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,49 +4795,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>33959</v>
+        <v>33100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>35606</v>
+        <v>32409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>69565</v>
+        <v>65509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5500,10 +4861,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I15" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5515,10 +4876,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5532,55 +4893,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="D16" s="7">
-        <v>134264</v>
+        <v>182763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="I16" s="7">
-        <v>121711</v>
+        <v>174419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="N16" s="7">
-        <v>255975</v>
+        <v>357183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,49 +4950,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1185</v>
+        <v>1527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>1185</v>
+        <v>3694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,49 +5001,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>32409</v>
+        <v>22491</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I18" s="7">
-        <v>33100</v>
+        <v>28971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="N18" s="7">
-        <v>65509</v>
+        <v>51462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,10 +5052,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D19" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5706,10 +5067,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="I19" s="7">
-        <v>155997</v>
+        <v>204918</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5721,10 +5082,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N19" s="7">
-        <v>322670</v>
+        <v>412338</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5738,55 +5099,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>247</v>
+        <v>867</v>
       </c>
       <c r="D20" s="7">
-        <v>174419</v>
+        <v>580287</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
-        <v>245</v>
+        <v>886</v>
       </c>
       <c r="I20" s="7">
-        <v>182763</v>
+        <v>619499</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
-        <v>492</v>
+        <v>1753</v>
       </c>
       <c r="N20" s="7">
-        <v>357183</v>
+        <v>1199786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,49 +5156,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D21" s="7">
-        <v>1527</v>
+        <v>7578</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>2166</v>
+        <v>3343</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>393</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>3694</v>
+        <v>10921</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,49 +5207,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="D22" s="7">
-        <v>28971</v>
+        <v>116506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="I22" s="7">
-        <v>22491</v>
+        <v>121184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="N22" s="7">
-        <v>51462</v>
+        <v>237690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,10 +5258,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>289</v>
+        <v>1061</v>
       </c>
       <c r="D23" s="7">
-        <v>204918</v>
+        <v>704371</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -5912,10 +5273,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>281</v>
+        <v>1064</v>
       </c>
       <c r="I23" s="7">
-        <v>207420</v>
+        <v>744026</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -5927,10 +5288,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>570</v>
+        <v>2125</v>
       </c>
       <c r="N23" s="7">
-        <v>412338</v>
+        <v>1448397</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -5943,222 +5304,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>886</v>
-      </c>
-      <c r="D24" s="7">
-        <v>619499</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H24" s="7">
-        <v>867</v>
-      </c>
-      <c r="I24" s="7">
-        <v>580287</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1753</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1199786</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>3343</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7578</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M25" s="7">
-        <v>16</v>
-      </c>
-      <c r="N25" s="7">
-        <v>10921</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>173</v>
-      </c>
-      <c r="D26" s="7">
-        <v>121184</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H26" s="7">
-        <v>183</v>
-      </c>
-      <c r="I26" s="7">
-        <v>116506</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M26" s="7">
-        <v>356</v>
-      </c>
-      <c r="N26" s="7">
-        <v>237690</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D27" s="7">
-        <v>744026</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I27" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1448397</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>157</v>
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6171,8 +5325,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011A576-BBC4-4F3E-8384-713E141E8A8D}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBFB25F-ADB4-4481-9AFF-A6A1F4467584}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6188,7 +5342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6289,49 +5443,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D4" s="7">
-        <v>11391</v>
+        <v>96651</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>367</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>368</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7">
-        <v>11876</v>
+        <v>119243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="N4" s="7">
-        <v>23267</v>
+        <v>215896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,7 +5506,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6367,7 +5521,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6382,7 +5536,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,49 +5545,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>1307</v>
+        <v>20629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>4911</v>
+        <v>21169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="N6" s="7">
-        <v>6218</v>
+        <v>41797</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,10 +5596,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -6457,10 +5611,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -6472,10 +5626,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -6495,49 +5649,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="D8" s="7">
-        <v>96631</v>
+        <v>152845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="H8" s="7">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="I8" s="7">
-        <v>88493</v>
+        <v>221677</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
-        <v>271</v>
+        <v>531</v>
       </c>
       <c r="N8" s="7">
-        <v>185123</v>
+        <v>374524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,7 +5712,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>282</v>
+        <v>397</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6573,7 +5727,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6588,7 +5742,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>213</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,49 +5751,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>17965</v>
+        <v>37667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>15402</v>
+        <v>33358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="M10" s="7">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>33367</v>
+        <v>71024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,10 +5802,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -6663,10 +5817,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -6678,10 +5832,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -6695,55 +5849,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>218448</v>
+        <v>162690</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="H12" s="7">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="I12" s="7">
-        <v>158356</v>
+        <v>157612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
-        <v>531</v>
+        <v>379</v>
       </c>
       <c r="N12" s="7">
-        <v>376804</v>
+        <v>320302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,7 +5918,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6779,7 +5933,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>475</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6794,7 +5948,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>476</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,49 +5957,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>31738</v>
+        <v>26895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7">
-        <v>33996</v>
+        <v>27674</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>421</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>65734</v>
+        <v>54569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,10 +6008,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -6869,10 +6023,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -6884,10 +6038,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -6901,55 +6055,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>213</v>
+      </c>
+      <c r="D16" s="7">
+        <v>149194</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H16" s="7">
         <v>193</v>
       </c>
-      <c r="D16" s="7">
-        <v>147910</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H16" s="7">
-        <v>186</v>
-      </c>
       <c r="I16" s="7">
-        <v>141141</v>
+        <v>146601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="M16" s="7">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="N16" s="7">
-        <v>289051</v>
+        <v>295795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,7 +6124,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6985,7 +6139,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7000,7 +6154,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,49 +6163,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>25298</v>
+        <v>18045</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>494</v>
+        <v>435</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I18" s="7">
-        <v>26761</v>
+        <v>34637</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" s="7">
-        <v>52059</v>
+        <v>52682</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,10 +6214,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>167239</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -7075,10 +6229,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -7090,10 +6244,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="N19" s="7">
-        <v>341110</v>
+        <v>348477</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -7107,55 +6261,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>193</v>
+        <v>792</v>
       </c>
       <c r="D20" s="7">
-        <v>142413</v>
+        <v>561382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="H20" s="7">
-        <v>213</v>
+        <v>831</v>
       </c>
       <c r="I20" s="7">
-        <v>154076</v>
+        <v>645134</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>508</v>
+        <v>449</v>
       </c>
       <c r="M20" s="7">
-        <v>406</v>
+        <v>1623</v>
       </c>
       <c r="N20" s="7">
-        <v>296488</v>
+        <v>1206516</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,7 +6330,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>512</v>
+        <v>238</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7191,7 +6345,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>238</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7206,7 +6360,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,49 +6369,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>32603</v>
+        <v>103235</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I22" s="7">
-        <v>17135</v>
+        <v>116838</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="N22" s="7">
-        <v>49738</v>
+        <v>220073</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,10 +6420,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D23" s="7">
-        <v>175016</v>
+        <v>664617</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -7281,10 +6435,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>239</v>
+        <v>977</v>
       </c>
       <c r="I23" s="7">
-        <v>171211</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -7296,10 +6450,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>477</v>
+        <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>346226</v>
+        <v>1426589</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -7312,222 +6466,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>831</v>
-      </c>
-      <c r="D24" s="7">
-        <v>616792</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="H24" s="7">
-        <v>792</v>
-      </c>
-      <c r="I24" s="7">
-        <v>553942</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1623</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1170734</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>146</v>
-      </c>
-      <c r="D26" s="7">
-        <v>108912</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="H26" s="7">
-        <v>149</v>
-      </c>
-      <c r="I26" s="7">
-        <v>98205</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="M26" s="7">
-        <v>295</v>
-      </c>
-      <c r="N26" s="7">
-        <v>207117</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>977</v>
-      </c>
-      <c r="D27" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>941</v>
-      </c>
-      <c r="I27" s="7">
-        <v>652147</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1377851</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>157</v>
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
